--- a/Data_Result/Compare_uni_with_mul.xlsx
+++ b/Data_Result/Compare_uni_with_mul.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ML_Time-Series_EDA\Data_Result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Val_BG_compare_with_naive_6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -246,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -462,7 +467,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -732,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -742,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Data_Result/Compare_uni_with_mul.xlsx
+++ b/Data_Result/Compare_uni_with_mul.xlsx
@@ -525,7 +525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -560,7 +560,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Data_Result/Compare_uni_with_mul.xlsx
+++ b/Data_Result/Compare_uni_with_mul.xlsx
@@ -747,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
